--- a/initial_state.xlsx
+++ b/initial_state.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronwong/Desktop/code/ai_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/aaron_t_wong_vanderbilt_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79E9347-96BF-694F-949B-3ACBFF80A159}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F78C3E9-2743-4EF8-91D7-3FE2752BFC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="500" windowWidth="17180" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="3345" windowWidth="23025" windowHeight="15555" xr2:uid="{65B8699D-C102-4177-9EDB-4160093663D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,6 +81,30 @@
     <t>R22</t>
   </si>
   <si>
+    <t>R1'</t>
+  </si>
+  <si>
+    <t>R5'</t>
+  </si>
+  <si>
+    <t>R6'</t>
+  </si>
+  <si>
+    <t>R18'</t>
+  </si>
+  <si>
+    <t>R19'</t>
+  </si>
+  <si>
+    <t>R20'</t>
+  </si>
+  <si>
+    <t>R21'</t>
+  </si>
+  <si>
+    <t>R22'</t>
+  </si>
+  <si>
     <t>Atlantis</t>
   </si>
   <si>
@@ -80,30 +118,6 @@
   </si>
   <si>
     <t>Erewhon</t>
-  </si>
-  <si>
-    <t>R1'</t>
-  </si>
-  <si>
-    <t>R5'</t>
-  </si>
-  <si>
-    <t>R6'</t>
-  </si>
-  <si>
-    <t>R18'</t>
-  </si>
-  <si>
-    <t>R19'</t>
-  </si>
-  <si>
-    <t>R20'</t>
-  </si>
-  <si>
-    <t>R21'</t>
-  </si>
-  <si>
-    <t>R22'</t>
   </si>
 </sst>
 </file>
@@ -112,9 +126,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -147,9 +163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,56 +184,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,34 +470,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFF1F50-2D06-415F-BBD2-20BAAA637A1E}">
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="5.5" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="10" width="5.5" customWidth="1"/>
-    <col min="11" max="18" width="4.5" customWidth="1"/>
-    <col min="19" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,33 +535,33 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
@@ -529,9 +630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>50</v>
@@ -600,9 +701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>25</v>
@@ -671,9 +772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -742,9 +843,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>70</v>
